--- a/biology/Médecine/Histopathologie/Histopathologie.xlsx
+++ b/biology/Médecine/Histopathologie/Histopathologie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'histopathologie est la discipline botanique ou médicale destinée à faire un diagnostic par l'étude microscopique des tissus (vivants ou morts).
 C'est encore l'outil le plus utilisé en anatomo-pathologie ; en routine pour le diagnostic clinique du cancer et d'autres maladies.
@@ -512,7 +524,9 @@
           <t>Étymologie et définition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mot histopathologie vient du grec histos (tissus) et pathos (souffrance).
 Il renvoie à l'observation à échelle microscopique des tissus vivants ou morts avec pour objectif d'identifier les mécanismes, traces ou indices histologiques de manifestations de maladies (virales ou non).
@@ -545,7 +559,9 @@
           <t>Prélèvements</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'examen histopathologique des tissus commence par un acte de prélèvement de tissu (chirurgie, biopsie ou autopsie).
 Le tissu est retiré de l'organisme ou de la plante et généralement placé dans un fixatif biocide, qui stabilise le tissu afin de prévenir la décomposition. Le fixatif le plus commun est du formol (10 % de formaldéhyde dilué dans de l'eau). La personne qui prélève l'échantillon veille à ne pas le contaminer par des poussières, microbes ou substances indésirables.
@@ -577,7 +593,9 @@
           <t>Préparation histologique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'échantillon de tissu prélevé est préparé par les méthodes de l'histologie de manière à pouvoir être observé au microscope.
 Il est immergé dans un conteneur conçu pour permettre à des réactifs de pénétrer le tissu.
@@ -621,7 +639,9 @@
           <t>Interprétation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les préparations histologiques sont examinées au microscope par un médecin spécialisé (ou laborantin qualifié dans le domaine de la botanique ou de la fonge)
 Ce diagnostic médical est formulé dans un rapport qui décrit le résultat et l'avis du médecin.
